--- a/biology/Botanique/Parc_de_Monceau-sur-Sambre/Parc_de_Monceau-sur-Sambre.xlsx
+++ b/biology/Botanique/Parc_de_Monceau-sur-Sambre/Parc_de_Monceau-sur-Sambre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc de Monceau-sur-Sambre, nom usuel du Parc Nelson Mandela, anciennement Parc communal, est un parc à l'anglaise de la section de Monceau-sur-Sambre à Charleroi (Belgique), situé en bordure de la route nationale 90.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,12 +552,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est aménagé comme jardin à l'anglaise autour du Château de Monceau-sur-Sambre, monument classé, remontant au XVIIe siècle.
-En 1936, parc et château sont vendus à la commune de Monceau pour la somme de 1 250 000 francs belges[1]. Depuis la fusion des communes de 1977, la ville de Charleroi en est propriétaire.
-En juin 2015, dans un souci d'éliminer les doublons toponymiques, le Conseil communal renomme le parc, officiellement jusqu'alors « parc communal » en « parc Nelson Mandela »[2].
-Des travaux de réaménagement du parc ont lieu, pour le début de l'été 2017, visant à mettre en avant la zone humide par la construction d'un étang, à réparer certaines infrastructures manquantes ou dégradées et à s'assurer que les principaux sentiers soient accessibles aux personnes à mobilité réduite[3]. L'étang comporte en son centre une île, permettant aux oiseaux de nidifier, inaccessible depuis les berges, mais observable depuis un promontoir[3].
+En 1936, parc et château sont vendus à la commune de Monceau pour la somme de 1 250 000 francs belges. Depuis la fusion des communes de 1977, la ville de Charleroi en est propriétaire.
+En juin 2015, dans un souci d'éliminer les doublons toponymiques, le Conseil communal renomme le parc, officiellement jusqu'alors « parc communal » en « parc Nelson Mandela ».
+Des travaux de réaménagement du parc ont lieu, pour le début de l'été 2017, visant à mettre en avant la zone humide par la construction d'un étang, à réparer certaines infrastructures manquantes ou dégradées et à s'assurer que les principaux sentiers soient accessibles aux personnes à mobilité réduite. L'étang comporte en son centre une île, permettant aux oiseaux de nidifier, inaccessible depuis les berges, mais observable depuis un promontoir.
 </t>
         </is>
       </c>
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
